--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL335_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL335_00001.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\# OOI_Asset_Management\CP_mod\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="144" yWindow="180" windowWidth="23136" windowHeight="7956" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="150" yWindow="180" windowWidth="23130" windowHeight="7950" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
   <si>
     <t>Ref Des</t>
   </si>
@@ -171,6 +171,9 @@
   </si>
   <si>
     <t>N00732</t>
+  </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
   </si>
 </sst>
 </file>
@@ -326,7 +329,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -386,6 +389,9 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -767,17 +773,17 @@
       <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" customWidth="1"/>
-    <col min="2" max="2" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
     <col min="5" max="9" width="17" customWidth="1"/>
-    <col min="10" max="11" width="11.33203125" customWidth="1"/>
+    <col min="10" max="11" width="11.28515625" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
@@ -815,7 +821,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -861,14 +867,14 @@
         <v>-70.708333333333329</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
     </row>
   </sheetData>
@@ -887,21 +893,21 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E18"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
+    <col min="1" max="1" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" customWidth="1"/>
-    <col min="5" max="5" width="12.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" customWidth="1"/>
-    <col min="7" max="8" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="8" width="28.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
@@ -927,7 +933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>25</v>
       </c>
@@ -963,7 +969,7 @@
       <c r="Q2" s="15"/>
       <c r="R2" s="15"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>25</v>
       </c>
@@ -999,7 +1005,7 @@
       <c r="Q3" s="15"/>
       <c r="R3" s="15"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>25</v>
       </c>
@@ -1035,7 +1041,7 @@
       <c r="Q4" s="15"/>
       <c r="R4" s="15"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1077,7 @@
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="12"/>
@@ -1091,7 +1097,7 @@
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
     </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
@@ -1122,7 +1128,7 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
     </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>26</v>
       </c>
@@ -1153,7 +1159,7 @@
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
     </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
@@ -1184,7 +1190,7 @@
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
     </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1215,7 +1221,7 @@
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
     </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="12"/>
@@ -1230,7 +1236,7 @@
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
     </row>
-    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>27</v>
       </c>
@@ -1257,7 +1263,7 @@
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
     </row>
-    <row r="13" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="12"/>
@@ -1272,7 +1278,7 @@
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>28</v>
       </c>
@@ -1299,7 +1305,7 @@
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
     </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="12"/>
@@ -1314,7 +1320,7 @@
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
     </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
@@ -1333,15 +1339,19 @@
       <c r="F16" s="16">
         <v>50151</v>
       </c>
-      <c r="G16" s="10"/>
-      <c r="H16" s="11"/>
+      <c r="G16" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="26">
+        <v>9.9999999999999995E-7</v>
+      </c>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
     </row>
-    <row r="17" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="9"/>
       <c r="C17" s="12"/>
@@ -1356,7 +1366,7 @@
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
     </row>
-    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>30</v>
       </c>
@@ -1381,7 +1391,7 @@
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
     </row>
-    <row r="19" spans="1:13" s="3" customFormat="1" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" s="3" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="10"/>
       <c r="C19" s="12"/>
@@ -1398,7 +1408,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL335_00001.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL335_00001.xlsx
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>Ref Des</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>OL000347</t>
   </si>
 </sst>
 </file>
@@ -770,7 +773,7 @@
   <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +896,7 @@
   <dimension ref="A1:R19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,10 +1126,11 @@
         <v>124</v>
       </c>
       <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="J7" s="15"/>
       <c r="K7" s="10"/>
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
+      <c r="O7" s="15"/>
     </row>
     <row r="8" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
@@ -1154,7 +1158,7 @@
         <v>700</v>
       </c>
       <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="J8" s="15"/>
       <c r="K8" s="10"/>
       <c r="L8" s="10"/>
       <c r="M8" s="10"/>
@@ -1185,7 +1189,7 @@
         <v>1.0760000000000001</v>
       </c>
       <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="J9" s="15"/>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
@@ -1216,7 +1220,7 @@
         <v>3.9E-2</v>
       </c>
       <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="J10" s="15"/>
       <c r="K10" s="10"/>
       <c r="L10" s="10"/>
       <c r="M10" s="10"/>
@@ -1231,7 +1235,7 @@
       <c r="G11" s="14"/>
       <c r="H11" s="19"/>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="J11" s="15"/>
       <c r="K11" s="10"/>
       <c r="L11" s="10"/>
       <c r="M11" s="10"/>
@@ -1258,7 +1262,7 @@
       <c r="G12" s="10"/>
       <c r="H12" s="11"/>
       <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="J12" s="15"/>
       <c r="K12" s="10"/>
       <c r="L12" s="10"/>
       <c r="M12" s="10"/>
@@ -1273,7 +1277,7 @@
       <c r="G13" s="10"/>
       <c r="H13" s="11"/>
       <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="J13" s="15"/>
       <c r="K13" s="10"/>
       <c r="L13" s="10"/>
       <c r="M13" s="10"/>
@@ -1300,7 +1304,7 @@
       <c r="G14" s="10"/>
       <c r="H14" s="11"/>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="J14" s="15"/>
       <c r="K14" s="10"/>
       <c r="L14" s="10"/>
       <c r="M14" s="10"/>
@@ -1315,7 +1319,7 @@
       <c r="G15" s="10"/>
       <c r="H15" s="11"/>
       <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="J15" s="15"/>
       <c r="K15" s="10"/>
       <c r="L15" s="10"/>
       <c r="M15" s="10"/>
@@ -1346,7 +1350,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="J16" s="15"/>
       <c r="K16" s="10"/>
       <c r="L16" s="10"/>
       <c r="M16" s="10"/>
@@ -1361,7 +1365,7 @@
       <c r="G17" s="10"/>
       <c r="H17" s="11"/>
       <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="J17" s="15"/>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
       <c r="M17" s="10"/>
@@ -1379,14 +1383,16 @@
       <c r="D18" s="12">
         <v>1</v>
       </c>
-      <c r="E18" s="12"/>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
       <c r="F18" s="16">
         <v>335</v>
       </c>
       <c r="G18" s="10"/>
       <c r="H18" s="11"/>
       <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="J18" s="15"/>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
       <c r="M18" s="10"/>
